--- a/biology/Médecine/Champignon_à_psilocybine/Champignon_à_psilocybine.xlsx
+++ b/biology/Médecine/Champignon_à_psilocybine/Champignon_à_psilocybine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Champignon_%C3%A0_psilocybine</t>
+          <t>Champignon_à_psilocybine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les champignons à psilocybine, communément appelés champignons magiques, sont un groupe polyphylétique informel regroupant les champignons qui contiennent de la psilocybine, un composé qui se transforme en psilocine après ingestion[1],[2]. Parmi les genres biologiques avec espèces à psilocybine, on trouve notamment Psilocybe, Panaeolus, Inocybe, Pluteus, Gymnopilus et Pholiotina[3]. Des champignons à psilocybine ont été et continuent d'être utilisés dans les cultures indigènes du Nouveau Monde dans des contextes religieux, divinatoires ou spirituels[4]. Les champignons à psilocybine sont également utilisés comme drogue récréative. S'ils sont présents dans l'art rupestre de l'âge de pierre en Afrique et en Europe, c'est surtout à travers les sculptures et les glyphes précolombiens d'Amérique du Nord, centrale et du Sud qu'ils sont le plus connus.
-Les œuvres d'art rupestre préhistoriques près de Villar del Humo en Espagne suggèrent que Psilocybe hispanica était utilisé dans les rituels religieux il y a 6 000 ans[5]. Les espèces psychoactives [6] du genre Psilocybe ont une histoire d'utilisation parmi les peuples autochtones de Mésoamérique pour la communion religieuse, la divination et la guérison, de l'époque précolombienne jusqu'à nos jours[7]. Des pierres et des motifs de champignons ont été trouvés au Guatemala[8]. Une statuette datant d'env. 200 EC représentant un champignon ressemblant fortement à Psilocybe mexicana a été trouvé dans l'État de Colima, dans l'ouest du Mexique, dans un puits et une tombe à chambre. Une espèce de Psilocybe connue des Aztèques sous le nom de teōnanācatl (littéralement "champignon divin": forme agglutinante de teōtl (dieu, sacré) et nanācatl (champignon) en langue nahuatl) aurait été servie lors du couronnement du souverain aztèque Moctezuma II en 1502. Les Aztèques et les Mazatèques utilisaient les termes de champignons géniaux, champignons divinatoires ou encore champignons merveilleux pour désigner les champignons à psilocybine[9]. Bernardino de Sahagún rapporta l'utilisation rituelle du teonanácatl par les Aztèques au retour de son voyage en Amérique centrale qui suivit l'expédition d'Hernán Cortés[10].
-Après la conquête espagnole, les missionnaires catholiques font campagne contre la tradition culturelle des Aztèques, les rejetant comme des idolâtres. L'utilisation de plantes et de champignons hallucinogènes ainsi que d'autres traditions préchrétiennes sont rapidement supprimées[8]. Les Espagnols croyaient que le champignon permettait aux Aztèques et à d'autres de communiquer avec les démons. Malgré cela, l'utilisation du teonanácatl persista dans certaines régions éloignées. 
-La première mention de champignons hallucinogènes dans la littérature médicale européenne apparaît dans le London Medical and Physical Journal en 1799 : un homme sert à sa famille des champignons Psilocybe semilanceata qu'il avait cueillis pour le petit-déjeuner dans le Green Park de Londres. L'apothicaire qui les soigna décrit plus tard comme le plus jeune enfant "était pris de crises de fou rire que les menaces de son père et de sa mère ne pouvaient retenir"[11].
-En 1955, Valentina Pavlovna Wasson et R. Gordon Wasson deviennent les premiers Américains d'origine européenne connus pour participer activement à une cérémonie de champignons indigène. Les Wasson font alors beaucoup pour faire connaître leur expérience, publiant même un article sur ce sujet dans Life le 13 mai 1957[12]. En 1956, Roger Heim identifie le champignon psychoactif que les Wasson avaient ramené du Mexique sous le nom de Psilocybe[13], et en 1958, Albert Hofmann identifie pour la première fois la psilocybine et la psilocine comme les composés actifs de ces champignons[14],[15].
-Inspiré par l'article des Wassons dans Life, Timothy Leary se rend alors au Mexique pour découvrir lui-même les champignons à psilocybine. C'est à son retour à Harvard en 1960 qu'il lance avec Richard Alpert le Harvard Psilocybin Project, promouvant des études psychologiques et religieuses sur la psilocybine et d'autres drogues psychédéliques. Alpert et Leary souhaitent alors mener des recherches sur la psilocybine sur des prisonniers dans les années 1960, testant ses effets sur la récidive[16]. Au terme d'une expérience de six mois, ils constatent un taux de récidive en-dessous de 40 %, dépassant de leurs attentes. Ceci, ainsi qu'une autre expérience qui consista à administrer de la psilocybine à des étudiants diplômés en théologie, suscite la controverse. Peu de temps après être renvoyés de la faculté de Harvard en 1963, Leary et Alpert tournèrent leur attention vers la promotion de l'expérience psychédélique dans la contre-culture hippie naissante[17].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les champignons à psilocybine, communément appelés champignons magiques, sont un groupe polyphylétique informel regroupant les champignons qui contiennent de la psilocybine, un composé qui se transforme en psilocine après ingestion,. Parmi les genres biologiques avec espèces à psilocybine, on trouve notamment Psilocybe, Panaeolus, Inocybe, Pluteus, Gymnopilus et Pholiotina. Des champignons à psilocybine ont été et continuent d'être utilisés dans les cultures indigènes du Nouveau Monde dans des contextes religieux, divinatoires ou spirituels. Les champignons à psilocybine sont également utilisés comme drogue récréative. S'ils sont présents dans l'art rupestre de l'âge de pierre en Afrique et en Europe, c'est surtout à travers les sculptures et les glyphes précolombiens d'Amérique du Nord, centrale et du Sud qu'ils sont le plus connus.
+Les œuvres d'art rupestre préhistoriques près de Villar del Humo en Espagne suggèrent que Psilocybe hispanica était utilisé dans les rituels religieux il y a 6 000 ans. Les espèces psychoactives  du genre Psilocybe ont une histoire d'utilisation parmi les peuples autochtones de Mésoamérique pour la communion religieuse, la divination et la guérison, de l'époque précolombienne jusqu'à nos jours. Des pierres et des motifs de champignons ont été trouvés au Guatemala. Une statuette datant d'env. 200 EC représentant un champignon ressemblant fortement à Psilocybe mexicana a été trouvé dans l'État de Colima, dans l'ouest du Mexique, dans un puits et une tombe à chambre. Une espèce de Psilocybe connue des Aztèques sous le nom de teōnanācatl (littéralement "champignon divin": forme agglutinante de teōtl (dieu, sacré) et nanācatl (champignon) en langue nahuatl) aurait été servie lors du couronnement du souverain aztèque Moctezuma II en 1502. Les Aztèques et les Mazatèques utilisaient les termes de champignons géniaux, champignons divinatoires ou encore champignons merveilleux pour désigner les champignons à psilocybine. Bernardino de Sahagún rapporta l'utilisation rituelle du teonanácatl par les Aztèques au retour de son voyage en Amérique centrale qui suivit l'expédition d'Hernán Cortés.
+Après la conquête espagnole, les missionnaires catholiques font campagne contre la tradition culturelle des Aztèques, les rejetant comme des idolâtres. L'utilisation de plantes et de champignons hallucinogènes ainsi que d'autres traditions préchrétiennes sont rapidement supprimées. Les Espagnols croyaient que le champignon permettait aux Aztèques et à d'autres de communiquer avec les démons. Malgré cela, l'utilisation du teonanácatl persista dans certaines régions éloignées. 
+La première mention de champignons hallucinogènes dans la littérature médicale européenne apparaît dans le London Medical and Physical Journal en 1799 : un homme sert à sa famille des champignons Psilocybe semilanceata qu'il avait cueillis pour le petit-déjeuner dans le Green Park de Londres. L'apothicaire qui les soigna décrit plus tard comme le plus jeune enfant "était pris de crises de fou rire que les menaces de son père et de sa mère ne pouvaient retenir".
+En 1955, Valentina Pavlovna Wasson et R. Gordon Wasson deviennent les premiers Américains d'origine européenne connus pour participer activement à une cérémonie de champignons indigène. Les Wasson font alors beaucoup pour faire connaître leur expérience, publiant même un article sur ce sujet dans Life le 13 mai 1957. En 1956, Roger Heim identifie le champignon psychoactif que les Wasson avaient ramené du Mexique sous le nom de Psilocybe, et en 1958, Albert Hofmann identifie pour la première fois la psilocybine et la psilocine comme les composés actifs de ces champignons,.
+Inspiré par l'article des Wassons dans Life, Timothy Leary se rend alors au Mexique pour découvrir lui-même les champignons à psilocybine. C'est à son retour à Harvard en 1960 qu'il lance avec Richard Alpert le Harvard Psilocybin Project, promouvant des études psychologiques et religieuses sur la psilocybine et d'autres drogues psychédéliques. Alpert et Leary souhaitent alors mener des recherches sur la psilocybine sur des prisonniers dans les années 1960, testant ses effets sur la récidive. Au terme d'une expérience de six mois, ils constatent un taux de récidive en-dessous de 40 %, dépassant de leurs attentes. Ceci, ainsi qu'une autre expérience qui consista à administrer de la psilocybine à des étudiants diplômés en théologie, suscite la controverse. Peu de temps après être renvoyés de la faculté de Harvard en 1963, Leary et Alpert tournèrent leur attention vers la promotion de l'expérience psychédélique dans la contre-culture hippie naissante.
 La vulgarisation des enthéogènes par les Wasson, Leary, Terence McKenna, Robert Anton Wilson et bien d'autres conduit à une explosion de l'utilisation des champignons à psilocybine dans le monde entier. Au début des années 1970, de nombreuses espèces de champignons à psilocybine sont décrites provenant d'Amérique du Nord tempérée, d'Europe et d'Asie. Des livres décrivant les méthodes de culture de grandes quantités de Psilocybe cubensis sont alors également publiés. La disponibilité de champignons à psilocybine de sources sauvages et cultivées en font l'une des drogues psychédéliques les plus largement utilisées.
-À l'heure actuelle, l'utilisation de champignons à psilocybine a été signalée parmi certains groupes allant du centre du Mexique à Oaxaca, y compris des groupes de Nahua, Mixtèques, Mixe, Mazatecs, Zapotèques et d'autres[4]. Une figure importante de l'utilisation des champignons au Mexique était la guérisseuse María Sabina[18], qui utilisait des champignons indigènes tels que Psilocybe mexicana dans sa pratique.
+À l'heure actuelle, l'utilisation de champignons à psilocybine a été signalée parmi certains groupes allant du centre du Mexique à Oaxaca, y compris des groupes de Nahua, Mixtèques, Mixe, Mazatecs, Zapotèques et d'autres. Une figure importante de l'utilisation des champignons au Mexique était la guérisseuse María Sabina, qui utilisait des champignons indigènes tels que Psilocybe mexicana dans sa pratique.
 </t>
         </is>
       </c>
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Champignon_%C3%A0_psilocybine</t>
+          <t>Champignon_à_psilocybine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,11 +530,13 @@
           <t>Occurrence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Parmi les espèces de champignons à psilocybine hors du genre Psilocybe, on trouve Pluteus salicinus (à gauche), Gymnopilus luteoviridis (au centre) et Panaeolus cinctulus, anciennement appelé Panaeolus subbalteatus (à droite).
-Dans une revue de 2000 sur la distribution mondiale des champignons à psilocybine, Gastón Guzmán et ses collègues ont considéré qu'ils étaient répartis entre les genres suivants : Psilocybe (116 espèces), Gymnopilus (14), Panaeolus (13), Copelandia (12), Pluteus (6) Inocybe (6), Pholiotina (4) et Galerina (1).  Guzmán a augmenté son estimation du nombre de Psilocybe contenant de la psilocybine à 144 espèces dans une revue de 2005[19].
-Beaucoup d'entre eux se trouvent au Mexique (53 espèces), le reste étant réparti entre le Canada et les États-Unis (22), l'Europe (16), l'Asie (15), l'Afrique (4) et l'Australie et îles associées (19)[21]. En général, les espèces contenant de la psilocybine sont des champignons à lamelles à spores sombres qui poussent dans les prairies et les bois des régions subtropicales et tropicales, généralement dans des sols riches en humus et en débris végétaux[22]. Les champignons à psilocybine sont présents sur tous les continents, mais la majorité des espèces se trouvent dans les forêts humides subtropicales[19]. P. cubensis est le Psilocybe le plus répandu dans les zones tropicales. P semilanceata, considéré comme le champignon à psilocybine le plus répandu au monde[23], se trouve dans les régions tempérées d'Europe, d'Amérique du Nord, d'Asie, d'Amérique du Sud, d'Australie et de Nouvelle-Zélande, bien qu'il soit absent du Mexique[21].
+Dans une revue de 2000 sur la distribution mondiale des champignons à psilocybine, Gastón Guzmán et ses collègues ont considéré qu'ils étaient répartis entre les genres suivants : Psilocybe (116 espèces), Gymnopilus (14), Panaeolus (13), Copelandia (12), Pluteus (6) Inocybe (6), Pholiotina (4) et Galerina (1).  Guzmán a augmenté son estimation du nombre de Psilocybe contenant de la psilocybine à 144 espèces dans une revue de 2005.
+Beaucoup d'entre eux se trouvent au Mexique (53 espèces), le reste étant réparti entre le Canada et les États-Unis (22), l'Europe (16), l'Asie (15), l'Afrique (4) et l'Australie et îles associées (19). En général, les espèces contenant de la psilocybine sont des champignons à lamelles à spores sombres qui poussent dans les prairies et les bois des régions subtropicales et tropicales, généralement dans des sols riches en humus et en débris végétaux. Les champignons à psilocybine sont présents sur tous les continents, mais la majorité des espèces se trouvent dans les forêts humides subtropicales. P. cubensis est le Psilocybe le plus répandu dans les zones tropicales. P semilanceata, considéré comme le champignon à psilocybine le plus répandu au monde, se trouve dans les régions tempérées d'Europe, d'Amérique du Nord, d'Asie, d'Amérique du Sud, d'Australie et de Nouvelle-Zélande, bien qu'il soit absent du Mexique.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Champignon_%C3%A0_psilocybine</t>
+          <t>Champignon_à_psilocybine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La composition des champignons magiques varie d'un genre à l'autre et d'une espèce à l'autre[24]. Son composant principal est la psilocybine[25] qui est convertie en psilocine pour produire un effet psychoactif. En outre, la psilocine, la norpsilocine, la baeocystine, la norbaeocystine et l'aeruginascine peuvent également être présentes, ce qui peut modifier les effets des champignons magiques[24]. Certains champignons produisent des β-carbolines qui inhibent la monoamine oxydase, une enzyme qui décompose les alcaloïdes de tryptamine. Ils se produisent dans différents genres, tels que Psilocybe[26], Cyclocybe[27] et Hygrophorus[28]. L'harmine, l'harmane, le norharmane et une gamme d'autres β-carbolines dérivées du L-tryptophane ont été découverts chez les espèces de Psilocybe.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La composition des champignons magiques varie d'un genre à l'autre et d'une espèce à l'autre. Son composant principal est la psilocybine qui est convertie en psilocine pour produire un effet psychoactif. En outre, la psilocine, la norpsilocine, la baeocystine, la norbaeocystine et l'aeruginascine peuvent également être présentes, ce qui peut modifier les effets des champignons magiques. Certains champignons produisent des β-carbolines qui inhibent la monoamine oxydase, une enzyme qui décompose les alcaloïdes de tryptamine. Ils se produisent dans différents genres, tels que Psilocybe, Cyclocybe et Hygrophorus. L'harmine, l'harmane, le norharmane et une gamme d'autres β-carbolines dérivées du L-tryptophane ont été découverts chez les espèces de Psilocybe.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Champignon_%C3%A0_psilocybine</t>
+          <t>Champignon_à_psilocybine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,15 +598,13 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">PsilocybinePsilocine
-Les effets des champignons à psilocybine proviennent de la psilocybine et de la psilocine. Lorsque la psilocybine est ingérée, elle est décomposée par le foie dans un processus appelé déphosphorylation. Le composé résultant est appelé psilocine, qui est responsable des effets psychédéliques[29]. La psilocybine et la psilocyne produisent des augmentations à court terme de la tolérance chez les utilisateurs, ce qui rend difficile leur abus car plus elles sont prises souvent dans un court laps de temps, plus les effets résultants sont faibles[30]. Les champignons à psilocybine ne sont pas connus pour provoquer une dépendance physique ou psychologique (addiction)[31]. Les effets psychédéliques ont tendance à apparaître environ 20 minutes après l'ingestion et peuvent durer jusqu'à 6 heures. Des effets physiques tels que nausées, vomissements, euphorie, faiblesse ou relaxation musculaire, somnolence et manque de coordination peuvent survenir.
-Comme pour de nombreuses substances psychédéliques, les effets des champignons psychédéliques sont subjectifs et peuvent varier considérablement d'un utilisateur à l'autre. Les effets psychotropes des champignons contenant de la psilocybine durent généralement de trois à huit heures selon la posologie, la méthode de préparation et le métabolisme personnel. Les 3 à 4 premières heures après l'ingestion sont généralement appelées le « pic » - au cours duquel l'utilisateur éprouve des visuels plus vifs et des distorsions dans la réalité. Les effets peuvent sembler durer beaucoup plus longtemps pour l'utilisateur en raison de la capacité de la psilocybine à modifier la perception du temps[32].
-Effets sensoriels
-Les effets sensoriels comprennent des hallucinations visuelles et auditives suivies de changements émotionnels et d'une perception altérée du temps et de l'espace[33]. Des modifications notables des sens auditifs, visuels et tactiles peuvent apparaître environ 30 minutes à une heure après l'ingestion, bien que les effets puissent prendre jusqu'à deux heures pour se produire. Ces changements de perception incluent visuellement l'amélioration et le contraste des couleurs, des phénomènes lumineux étranges (tels que des auras ou des "halos" autour des sources lumineuses), une acuité visuelle accrue, des surfaces qui semblent onduler, scintiller ou respirer ; des visuels complexes avec les yeux ouverts ou fermés de constantes de forme ou d'images, d'objets qui se déforment, se transforment ou changent de couleurs unies ; un sentiment de fusion dans l'environnement et des traînées derrière des objets en mouvement. Les sons peuvent sembler avoir une clarté accrue. La musique, par exemple, peut prendre un sens profond de cadence et de profondeur[33]. Certains utilisateurs ressentent une synesthésie, dans laquelle ils perçoivent, par exemple, une visualisation de couleur en entendant un son particulier[34].
-Effets émotionnels
-Comme pour d'autres substances psychédéliques telles que le LSD, l'expérience, ou le « voyage », dépend fortement de l'état d'esprit de l'utilisateur et du cadre - « set and setting » en anglais[33]. L'hilarité, le manque de concentration et la relaxation musculaire (y compris les pupilles dilatées) sont tous des effets normaux, parfois dans le même voyage[33]. Un environnement négatif pourrait contribuer à un bad trip, alors qu'un environnement agréable et familier préparerait le terrain pour une expérience positive. Les psychédéliques rendent les expériences plus intenses, donc si une personne entre en voyage dans un état d'esprit anxieux, elle ressentira probablement une anxiété accrue pendant son voyage. De nombreux utilisateurs trouvent préférable d'ingérer les champignons avec des amis ou des personnes familiarisées avec le « trip »[35]. Les conséquences psychologiques de l'utilisation de la psilocybine comprennent des hallucinations et une incapacité à discerner le fantasme de la réalité. Des réactions de panique et une psychose peuvent également survenir, en particulier si un utilisateur ingère une forte dose. En plus des risques associés à l'ingestion de psilocybine, les personnes qui cherchent à utiliser des champignons à psilocybine risquent également un empoisonnement si l'une des espèces de champignons vénéneux est confondue avec un champignon à psilocybine[36].
+Les effets des champignons à psilocybine proviennent de la psilocybine et de la psilocine. Lorsque la psilocybine est ingérée, elle est décomposée par le foie dans un processus appelé déphosphorylation. Le composé résultant est appelé psilocine, qui est responsable des effets psychédéliques. La psilocybine et la psilocyne produisent des augmentations à court terme de la tolérance chez les utilisateurs, ce qui rend difficile leur abus car plus elles sont prises souvent dans un court laps de temps, plus les effets résultants sont faibles. Les champignons à psilocybine ne sont pas connus pour provoquer une dépendance physique ou psychologique (addiction). Les effets psychédéliques ont tendance à apparaître environ 20 minutes après l'ingestion et peuvent durer jusqu'à 6 heures. Des effets physiques tels que nausées, vomissements, euphorie, faiblesse ou relaxation musculaire, somnolence et manque de coordination peuvent survenir.
+Comme pour de nombreuses substances psychédéliques, les effets des champignons psychédéliques sont subjectifs et peuvent varier considérablement d'un utilisateur à l'autre. Les effets psychotropes des champignons contenant de la psilocybine durent généralement de trois à huit heures selon la posologie, la méthode de préparation et le métabolisme personnel. Les 3 à 4 premières heures après l'ingestion sont généralement appelées le « pic » - au cours duquel l'utilisateur éprouve des visuels plus vifs et des distorsions dans la réalité. Les effets peuvent sembler durer beaucoup plus longtemps pour l'utilisateur en raison de la capacité de la psilocybine à modifier la perception du temps.
 </t>
         </is>
       </c>
@@ -601,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Champignon_%C3%A0_psilocybine</t>
+          <t>Champignon_à_psilocybine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,13 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dosage</t>
+          <t>Effets</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le dosage des champignons contenant de la psilocybine dépend de leur teneur en psilocybine et en psilocine, qui peut varier considérablement d'une espèce à l'autre ainsi qu'au sein d'une même espèce, mais est généralement d'environ 0,5 à 2,0 % du poids sec du champignon[37]. Les doses habituelles de l'espèce commune Psilocybe cubensis varient entre 1,0 et 2,5 g, tandis qu'environ 2,5 à 5,0 g de champignon séché est considéré comme une forte dose[38]. Au-dessus de 5 g est souvent considéré comme une forte dose, 5,0 g de champignons séchés étant souvent appelés une "dose héroïque"[39],[40].
-La concentration de composés actifs de champignons à psilocybine varie d'une espèce à l'autre mais aussi d'un champignon à l'autre au sein d'une espèce, sous-espèce ou variété donnée[41]. Chez l'espèce Psilocybe samuiensis, le chapeau séché contient le plus de psilocybine à environ 0,23% à 0,90%. Le mycélium contient environ 0,24 % à 0,32 %.
+          <t>Effets sensoriels</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets sensoriels comprennent des hallucinations visuelles et auditives suivies de changements émotionnels et d'une perception altérée du temps et de l'espace. Des modifications notables des sens auditifs, visuels et tactiles peuvent apparaître environ 30 minutes à une heure après l'ingestion, bien que les effets puissent prendre jusqu'à deux heures pour se produire. Ces changements de perception incluent visuellement l'amélioration et le contraste des couleurs, des phénomènes lumineux étranges (tels que des auras ou des "halos" autour des sources lumineuses), une acuité visuelle accrue, des surfaces qui semblent onduler, scintiller ou respirer ; des visuels complexes avec les yeux ouverts ou fermés de constantes de forme ou d'images, d'objets qui se déforment, se transforment ou changent de couleurs unies ; un sentiment de fusion dans l'environnement et des traînées derrière des objets en mouvement. Les sons peuvent sembler avoir une clarté accrue. La musique, par exemple, peut prendre un sens profond de cadence et de profondeur. Certains utilisateurs ressentent une synesthésie, dans laquelle ils perçoivent, par exemple, une visualisation de couleur en entendant un son particulier.
 </t>
         </is>
       </c>
@@ -633,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Champignon_%C3%A0_psilocybine</t>
+          <t>Champignon_à_psilocybine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,15 +667,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Toxicologie</t>
+          <t>Effets</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce du genre de champignons à psilocybine le plus couramment recherché et ingéré, Psilocybe cubensis, contient deux toxines hallucinogènes primaires ; psilocybine et psilocine[42]. La dose létale médiane, également appelée « LD50 », de psilocybine est de 280 mg/kg[43].
-D'un point de vue toxicologique, il serait incroyablement difficile de faire une surdose de champignons à psilocybine, étant donné leurs principaux composés toxiques. Pour consommer de telles quantités massives de psilocybine, il faudrait ingérer plus de 1200 grammes de Psilocybe cubensis séché étant donné que 1 à 2 % du champignon séché contient de la psilocybine[37].
-Présentant une menace plus réaliste qu'une surdose mortelle, des niveaux significativement élevés de psilocine peuvent surstimuler les récepteurs 5-HT2A dans le cerveau, provoquant un syndrome sérotoninergique aigu[44]. Une étude de 2015 a observé qu'une dose de 200 mg/kg de psilocine induisait des symptômes d'empoisonnement aigu à la sérotonine chez la souris[45].
-Les événements mortels induits par la neurotoxicité sont rares avec une surdose de champignons à psilocybine, la plupart des patients admis en soins intensifs ne nécessitant qu'un traitement modéré après leur sortie du service[44]. Cependant, des événements mortels liés à la détresse émotionnelle et à la psychose induite par le trip peuvent survenir à la suite d'une surconsommation de champignons à psilocybine. En 2003, un cas mortel d'empoisonnement aux champignons magiques s'est produit lorsqu'un homme de 27 ans a été retrouvé mort dans un canal d'irrigation en raison d'hypothermie[46].
+          <t>Effets émotionnels</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour d'autres substances psychédéliques telles que le LSD, l'expérience, ou le « voyage », dépend fortement de l'état d'esprit de l'utilisateur et du cadre - « set and setting » en anglais. L'hilarité, le manque de concentration et la relaxation musculaire (y compris les pupilles dilatées) sont tous des effets normaux, parfois dans le même voyage. Un environnement négatif pourrait contribuer à un bad trip, alors qu'un environnement agréable et familier préparerait le terrain pour une expérience positive. Les psychédéliques rendent les expériences plus intenses, donc si une personne entre en voyage dans un état d'esprit anxieux, elle ressentira probablement une anxiété accrue pendant son voyage. De nombreux utilisateurs trouvent préférable d'ingérer les champignons avec des amis ou des personnes familiarisées avec le « trip ». Les conséquences psychologiques de l'utilisation de la psilocybine comprennent des hallucinations et une incapacité à discerner le fantasme de la réalité. Des réactions de panique et une psychose peuvent également survenir, en particulier si un utilisateur ingère une forte dose. En plus des risques associés à l'ingestion de psilocybine, les personnes qui cherchent à utiliser des champignons à psilocybine risquent également un empoisonnement si l'une des espèces de champignons vénéneux est confondue avec un champignon à psilocybine.
 </t>
         </is>
       </c>
@@ -667,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Champignon_%C3%A0_psilocybine</t>
+          <t>Champignon_à_psilocybine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -682,12 +704,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Recherche clinique</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En partie à cause des restrictions imposées par la loi sur les substances contrôlées, la recherche aux États-Unis a été limitée jusqu'au début du 21e siècle, lorsque les champignons à psilocybine ont été testés pour leur potentiel à traiter la toxicomanie, l'anxiété et les troubles de l'humeur[47],[48]. En 2018-2019 aux États-Unis, la Food and Drug Administration (FDA) a accordé la désignation de thérapie révolutionnaire pour les études sur la psilocybine dans les troubles dépressifs.[49]
+          <t>Dosage</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dosage des champignons contenant de la psilocybine dépend de leur teneur en psilocybine et en psilocine, qui peut varier considérablement d'une espèce à l'autre ainsi qu'au sein d'une même espèce, mais est généralement d'environ 0,5 à 2,0 % du poids sec du champignon. Les doses habituelles de l'espèce commune Psilocybe cubensis varient entre 1,0 et 2,5 g, tandis qu'environ 2,5 à 5,0 g de champignon séché est considéré comme une forte dose. Au-dessus de 5 g est souvent considéré comme une forte dose, 5,0 g de champignons séchés étant souvent appelés une "dose héroïque",.
+La concentration de composés actifs de champignons à psilocybine varie d'une espèce à l'autre mais aussi d'un champignon à l'autre au sein d'une espèce, sous-espèce ou variété donnée. Chez l'espèce Psilocybe samuiensis, le chapeau séché contient le plus de psilocybine à environ 0,23% à 0,90%. Le mycélium contient environ 0,24 % à 0,32 %.
 </t>
         </is>
       </c>
@@ -698,7 +723,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Champignon_%C3%A0_psilocybine</t>
+          <t>Champignon_à_psilocybine</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -713,12 +738,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Légalité</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La légalité de la culture, de la possession et de la vente de champignons à psilocybine, de psilocybine et de psilocine varie d'un pays à l'autre.
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce du genre de champignons à psilocybine le plus couramment recherché et ingéré, Psilocybe cubensis, contient deux toxines hallucinogènes primaires ; psilocybine et psilocine. La dose létale médiane, également appelée « LD50 », de psilocybine est de 280 mg/kg.
+D'un point de vue toxicologique, il serait incroyablement difficile de faire une surdose de champignons à psilocybine, étant donné leurs principaux composés toxiques. Pour consommer de telles quantités massives de psilocybine, il faudrait ingérer plus de 1200 grammes de Psilocybe cubensis séché étant donné que 1 à 2 % du champignon séché contient de la psilocybine.
+Présentant une menace plus réaliste qu'une surdose mortelle, des niveaux significativement élevés de psilocine peuvent surstimuler les récepteurs 5-HT2A dans le cerveau, provoquant un syndrome sérotoninergique aigu. Une étude de 2015 a observé qu'une dose de 200 mg/kg de psilocine induisait des symptômes d'empoisonnement aigu à la sérotonine chez la souris.
+Les événements mortels induits par la neurotoxicité sont rares avec une surdose de champignons à psilocybine, la plupart des patients admis en soins intensifs ne nécessitant qu'un traitement modéré après leur sortie du service. Cependant, des événements mortels liés à la détresse émotionnelle et à la psychose induite par le trip peuvent survenir à la suite d'une surconsommation de champignons à psilocybine. En 2003, un cas mortel d'empoisonnement aux champignons magiques s'est produit lorsqu'un homme de 27 ans a été retrouvé mort dans un canal d'irrigation en raison d'hypothermie.
 </t>
         </is>
       </c>
@@ -729,7 +759,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Champignon_%C3%A0_psilocybine</t>
+          <t>Champignon_à_psilocybine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -744,10 +774,78 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Recherche clinique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En partie à cause des restrictions imposées par la loi sur les substances contrôlées, la recherche aux États-Unis a été limitée jusqu'au début du 21e siècle, lorsque les champignons à psilocybine ont été testés pour leur potentiel à traiter la toxicomanie, l'anxiété et les troubles de l'humeur,. En 2018-2019 aux États-Unis, la Food and Drug Administration (FDA) a accordé la désignation de thérapie révolutionnaire pour les études sur la psilocybine dans les troubles dépressifs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Champignon_à_psilocybine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Champignon_%C3%A0_psilocybine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Légalité</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La légalité de la culture, de la possession et de la vente de champignons à psilocybine, de psilocybine et de psilocine varie d'un pays à l'autre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Champignon_à_psilocybine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Champignon_%C3%A0_psilocybine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Citations</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
